--- a/Databyte Task1.xlsx
+++ b/Databyte Task1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E51B031-B1B8-4574-979F-34017BC8ADD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6067465-9F81-4537-980F-4448DC8DFFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{EF1E1C52-CACA-4674-AF8F-E7C8275F453D}"/>
   </bookViews>
@@ -1555,6 +1555,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-CD61-41BE-91E3-263F2B0C211E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1601,6 +1606,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$14:$G$14</c:f>
@@ -1637,9 +1697,9 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1654,7 +1714,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3811,7 +3871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A148B03A-9918-43C0-9476-278A86F68F34}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/Databyte Task1.xlsx
+++ b/Databyte Task1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6067465-9F81-4537-980F-4448DC8DFFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DD5609-4E0C-4FB1-81B0-2F6ECCD6B960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{EF1E1C52-CACA-4674-AF8F-E7C8275F453D}"/>
   </bookViews>
@@ -1525,6 +1525,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-CD61-41BE-91E3-263F2B0C211E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1540,6 +1545,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-CD61-41BE-91E3-263F2B0C211E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1575,6 +1585,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-CD61-41BE-91E3-263F2B0C211E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1590,6 +1605,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-CD61-41BE-91E3-263F2B0C211E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1605,8 +1625,253 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-CD61-41BE-91E3-263F2B0C211E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>face Cream</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>. </a:t>
+                    </a:r>
+                    <a:fld id="{9A658457-3163-47B0-9626-A834527D3B99}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>. </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-CD61-41BE-91E3-263F2B0C211E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Face wash. </a:t>
+                    </a:r>
+                    <a:fld id="{53CAB6B4-8579-4278-AA10-0C2B106BA8BA}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>. </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-CD61-41BE-91E3-263F2B0C211E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14816688538932635"/>
+                  <c:y val="-9.5892752989209684E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Toothpaste</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>. </a:t>
+                    </a:r>
+                    <a:fld id="{D95155C7-96DA-4CF5-B177-F1ED66EF9F7D}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>. </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-CD61-41BE-91E3-263F2B0C211E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Bathing Soap. </a:t>
+                    </a:r>
+                    <a:fld id="{803DD4B8-059E-46D2-AAB4-E54F4A5BDDF3}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>. </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-CD61-41BE-91E3-263F2B0C211E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Shampoo. </a:t>
+                    </a:r>
+                    <a:fld id="{1681D95C-DB0F-4861-BACF-E5BB7BF63E90}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>. </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-CD61-41BE-91E3-263F2B0C211E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Moisturizer </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>. </a:t>
+                    </a:r>
+                    <a:fld id="{D7FC6AF6-9728-4B66-8615-C796FE14D9F1}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>. </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-CD61-41BE-91E3-263F2B0C211E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1637,11 +1902,12 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>. </c:separator>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -1696,10 +1962,10 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3871,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A148B03A-9918-43C0-9476-278A86F68F34}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
